--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.3.EESC_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.3.EESC_exp.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43351FA-A262-483C-8D8E-5632E17308B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="6885" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -25,22 +26,28 @@
     <definedName name="Lista_meses">Variables!$AB$10:$AB$21</definedName>
     <definedName name="Tabla_mes">Variables!$AB$10:$AC$21</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -913,13 +920,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28" x14ac:knownFonts="1">
     <font>
@@ -1465,7 +1472,7 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="84">
@@ -1528,7 +1535,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1536,9 +1543,9 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="11" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="11" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="11" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1546,65 +1553,17 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="12" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="7" fillId="12" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="12" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="12" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="13" fillId="12" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="7" fillId="12" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="12" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="16" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1620,9 +1579,6 @@
     <xf numFmtId="4" fontId="25" fillId="13" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1638,7 +1594,7 @@
     <xf numFmtId="0" fontId="24" fillId="15" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="15" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="15" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="15" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,7 +1605,7 @@
     <xf numFmtId="3" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1660,6 +1616,57 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1698,7 +1705,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1797,7 +1810,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1892,7 +1911,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1" descr="Resultado de imagen para potencia de focos incandescentes"/>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="Resultado de imagen para potencia de focos incandescentes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1945,7 +1970,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3" descr="Resultado de imagen para lamparas equivalentes"/>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Resultado de imagen para lamparas equivalentes">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -2277,7 +2308,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2304,30 +2335,30 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="72"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="47"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="72"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="74"/>
+      <c r="D7" s="74"/>
+      <c r="E7" s="75"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
@@ -2428,7 +2459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2456,14 +2487,14 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
@@ -2507,14 +2538,14 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="56"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="78"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="79"/>
     </row>
     <row r="11" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
@@ -2586,7 +2617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:EU45"/>
   <sheetViews>
     <sheetView topLeftCell="U7" workbookViewId="0">
@@ -2664,18 +2695,18 @@
       <c r="B3" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="80" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
       <c r="N3" s="19" t="s">
         <v>69</v>
       </c>
@@ -2824,10 +2855,10 @@
       <c r="P7" s="42"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="AB9" s="81" t="s">
+      <c r="AB9" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="AC9" s="82" t="s">
+      <c r="AC9" s="65" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3833,9 +3864,9 @@
     <mergeCell ref="C3:L3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="S31" r:id="rId1"/>
-    <hyperlink ref="E29" r:id="rId2"/>
-    <hyperlink ref="E30" r:id="rId3"/>
+    <hyperlink ref="S31" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E29" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E30" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
@@ -3843,10 +3874,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -4205,35 +4236,35 @@
       <c r="Q24" s="33"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O25" s="58" t="s">
+      <c r="O25" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="P25" s="58"/>
-      <c r="Q25" s="58"/>
+      <c r="P25" s="81"/>
+      <c r="Q25" s="81"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
+      <c r="O26" s="82"/>
+      <c r="P26" s="82"/>
+      <c r="Q26" s="82"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
+      <c r="O27" s="82"/>
+      <c r="P27" s="82"/>
+      <c r="Q27" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -4242,11 +4273,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,76 +4288,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="60"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="60"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="44"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="47" t="s">
         <v>111</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="83" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="68" t="s">
+      <c r="C5" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="68" t="s">
+      <c r="D5" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="70" t="s">
+      <c r="G5" s="66"/>
+      <c r="H5" s="53" t="s">
         <v>118</v>
       </c>
-      <c r="I5" s="67"/>
-    </row>
-    <row r="6" spans="2:9" ht="84" x14ac:dyDescent="0.25">
+      <c r="I5" s="83"/>
+    </row>
+    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>46</v>
       </c>
@@ -4344,102 +4375,102 @@
       <c r="H6" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="71" t="s">
+      <c r="I6" s="54" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="72">
-        <v>2018</v>
-      </c>
-      <c r="C7" s="73" t="s">
+      <c r="B7" s="55">
+        <v>2012</v>
+      </c>
+      <c r="C7" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="74">
+      <c r="D7" s="57">
         <v>36</v>
       </c>
-      <c r="E7" s="74">
+      <c r="E7" s="57">
         <v>10</v>
       </c>
-      <c r="F7" s="74">
+      <c r="F7" s="57">
         <v>100000</v>
       </c>
-      <c r="G7" s="74">
+      <c r="G7" s="57">
         <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="H7" s="74" t="s">
+      <c r="H7" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="75">
+      <c r="I7" s="58">
         <f>((((D7-E7))/(1-Factores!C6))*1/1000000*Factores!Q6*F7*Variables!$P$4)*G7/12</f>
         <v>2576.529382716049</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="72">
-        <v>2018</v>
-      </c>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="55">
+        <v>2013</v>
+      </c>
+      <c r="C8" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="57">
         <v>100</v>
       </c>
-      <c r="E8" s="74">
+      <c r="E8" s="57">
         <v>11</v>
       </c>
-      <c r="F8" s="74">
+      <c r="F8" s="57">
         <v>45000</v>
       </c>
-      <c r="G8" s="74">
+      <c r="G8" s="57">
         <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="74" t="s">
+      <c r="H8" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="75">
+      <c r="I8" s="58">
         <f>((((D8-E8))/(1-Factores!C6))*1/1000000*Factores!Q6*F8*Variables!$P$4)*G8/12</f>
         <v>3472.7404444444437</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="72">
+      <c r="B9" s="55">
         <v>2018</v>
       </c>
-      <c r="C9" s="73" t="s">
+      <c r="C9" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="74">
+      <c r="D9" s="57">
         <v>18</v>
       </c>
-      <c r="E9" s="74">
+      <c r="E9" s="57">
         <v>10</v>
       </c>
-      <c r="F9" s="74">
+      <c r="F9" s="57">
         <v>20000</v>
       </c>
-      <c r="G9" s="74">
+      <c r="G9" s="57">
         <f>VLOOKUP(H9,Tabla_mes,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="H9" s="74" t="s">
+      <c r="H9" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="75">
+      <c r="I9" s="58">
         <f>((((D9-E9))/(1-Factores!C12))*1/1000000*Factores!Q12*F9*Variables!$P$4)*G9/12</f>
         <v>130.034798206278</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="80">
+      <c r="B10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="63">
         <f>SUM(I7:I9)</f>
         <v>6179.3046253667708</v>
       </c>
@@ -4449,7 +4480,7 @@
     <mergeCell ref="I4:I5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Lista_meses</formula1>
     </dataValidation>
   </dataValidations>
@@ -4457,7 +4488,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000001000000}">
           <x14:formula1>
             <xm:f>Variables!$B$4:$B$7</xm:f>
           </x14:formula1>

--- a/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.3.EESC_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/Documentos/Exportar/1.3.EESC_exp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43351FA-A262-483C-8D8E-5632E17308B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19DF89FC-A56D-430A-8E15-E271C24BADEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
   <si>
     <t>1.3.</t>
   </si>
@@ -834,9 +834,6 @@
     <t>Total de Reducción de Emisiones</t>
   </si>
   <si>
-    <t>Fuente cocción BAU</t>
-  </si>
-  <si>
     <t>Potencia BAU (W)</t>
   </si>
   <si>
@@ -915,6 +912,15 @@
       </rPr>
       <t>EESC</t>
     </r>
+  </si>
+  <si>
+    <t>Tipo BAU</t>
+  </si>
+  <si>
+    <t>Tipo INI</t>
+  </si>
+  <si>
+    <t>Especificación del la lámpara (LED)</t>
   </si>
 </sst>
 </file>
@@ -2856,10 +2862,10 @@
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="AB9" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="AC9" s="65" t="s">
         <v>119</v>
-      </c>
-      <c r="AC9" s="65" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:29" ht="30" x14ac:dyDescent="0.25">
@@ -2885,7 +2891,7 @@
         <v>88</v>
       </c>
       <c r="AB10" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AC10" s="20">
         <v>11</v>
@@ -2939,7 +2945,7 @@
         <v>3</v>
       </c>
       <c r="AB12" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AC12" s="20">
         <v>9</v>
@@ -3024,7 +3030,7 @@
         <v>10</v>
       </c>
       <c r="AB15" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC15" s="20">
         <v>6</v>
@@ -3053,7 +3059,7 @@
         <v>12</v>
       </c>
       <c r="AB16" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC16" s="20">
         <v>5</v>
@@ -3082,7 +3088,7 @@
         <v>15</v>
       </c>
       <c r="AB17" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC17" s="20">
         <v>4</v>
@@ -3111,7 +3117,7 @@
         <v>20</v>
       </c>
       <c r="AB18" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC18" s="20">
         <v>3</v>
@@ -3140,7 +3146,7 @@
         <v>60</v>
       </c>
       <c r="AB19" s="17" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC19" s="20">
         <v>2</v>
@@ -3169,7 +3175,7 @@
         <v>80</v>
       </c>
       <c r="AB20" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC20" s="20">
         <v>1</v>
@@ -3198,7 +3204,7 @@
         <v>90</v>
       </c>
       <c r="AB21" s="17" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC21" s="20">
         <v>0</v>
@@ -4274,90 +4280,97 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B1:I10"/>
+  <dimension ref="B1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="4" max="5" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B1" s="44" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C1" s="44"/>
       <c r="D1" s="44"/>
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
       <c r="G1" s="44"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="44"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H1" s="44"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="44"/>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B2" s="46" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
       <c r="E2" s="44"/>
       <c r="F2" s="44"/>
       <c r="G2" s="44"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="44"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H2" s="44"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="44"/>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
       <c r="D3" s="44"/>
       <c r="E3" s="44"/>
       <c r="F3" s="44"/>
       <c r="G3" s="44"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="44"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="44"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="44"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="47" t="s">
         <v>111</v>
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
       <c r="G4" s="48"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="83" t="s">
+      <c r="H4" s="48"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="83" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B5" s="51" t="s">
         <v>43</v>
       </c>
       <c r="C5" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="D5" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="E5" s="51" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="E5" s="52" t="s">
+      <c r="G5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="66"/>
+      <c r="I5" s="53" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="66"/>
-      <c r="H5" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="I5" s="83"/>
-    </row>
-    <row r="6" spans="2:9" ht="72" x14ac:dyDescent="0.25">
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" spans="2:10" ht="72" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="s">
         <v>46</v>
       </c>
@@ -4366,20 +4379,23 @@
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="F6" s="16" t="s">
+      <c r="G6" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="16" t="s">
+      <c r="H6" s="43"/>
+      <c r="I6" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="54" t="s">
+      <c r="J6" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="55">
         <v>2012</v>
       </c>
@@ -4389,25 +4405,28 @@
       <c r="D7" s="57">
         <v>36</v>
       </c>
-      <c r="E7" s="57">
+      <c r="E7" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="57">
         <v>10</v>
       </c>
-      <c r="F7" s="57">
+      <c r="G7" s="57">
         <v>100000</v>
       </c>
-      <c r="G7" s="57">
-        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
+      <c r="H7" s="57">
+        <f>VLOOKUP(I7,Tabla_mes,2,FALSE)</f>
         <v>8</v>
       </c>
-      <c r="H7" s="57" t="s">
+      <c r="I7" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="I7" s="58">
-        <f>((((D7-E7))/(1-Factores!C6))*1/1000000*Factores!Q6*F7*Variables!$P$4)*G7/12</f>
+      <c r="J7" s="58">
+        <f>((((D7-F7))/(1-Factores!C6))*1/1000000*Factores!Q6*G7*Variables!$P$4)*H7/12</f>
         <v>2576.529382716049</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="55">
         <v>2013</v>
       </c>
@@ -4417,25 +4436,28 @@
       <c r="D8" s="57">
         <v>100</v>
       </c>
-      <c r="E8" s="57">
+      <c r="E8" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="57">
         <v>11</v>
       </c>
-      <c r="F8" s="57">
+      <c r="G8" s="57">
         <v>45000</v>
       </c>
-      <c r="G8" s="57">
-        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
+      <c r="H8" s="57">
+        <f>VLOOKUP(I8,Tabla_mes,2,FALSE)</f>
         <v>7</v>
       </c>
-      <c r="H8" s="57" t="s">
+      <c r="I8" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="58">
-        <f>((((D8-E8))/(1-Factores!C6))*1/1000000*Factores!Q6*F8*Variables!$P$4)*G8/12</f>
+      <c r="J8" s="58">
+        <f>((((D8-F8))/(1-Factores!C6))*1/1000000*Factores!Q6*G8*Variables!$P$4)*H8/12</f>
         <v>3472.7404444444437</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="55">
         <v>2018</v>
       </c>
@@ -4445,42 +4467,46 @@
       <c r="D9" s="57">
         <v>18</v>
       </c>
-      <c r="E9" s="57">
+      <c r="E9" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="57">
         <v>10</v>
       </c>
-      <c r="F9" s="57">
+      <c r="G9" s="57">
         <v>20000</v>
       </c>
-      <c r="G9" s="57">
-        <f>VLOOKUP(H9,Tabla_mes,2,FALSE)</f>
+      <c r="H9" s="57">
+        <f>VLOOKUP(I9,Tabla_mes,2,FALSE)</f>
         <v>10</v>
       </c>
-      <c r="H9" s="57" t="s">
+      <c r="I9" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="I9" s="58">
-        <f>((((D9-E9))/(1-Factores!C12))*1/1000000*Factores!Q12*F9*Variables!$P$4)*G9/12</f>
+      <c r="J9" s="58">
+        <f>((((D9-F9))/(1-Factores!C12))*1/1000000*Factores!Q12*G9*Variables!$P$4)*H9/12</f>
         <v>130.034798206278</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="59"/>
       <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="61"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="63">
-        <f>SUM(I7:I9)</f>
+      <c r="H10" s="61"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="63">
+        <f>SUM(J7:J9)</f>
         <v>6179.3046253667708</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H9" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7:I9" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Lista_meses</formula1>
     </dataValidation>
   </dataValidations>
